--- a/Presentation and Documentations/QA_Documentation.xlsx
+++ b/Presentation and Documentations/QA_Documentation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83D82254-8697-432A-B661-DB2A8860812C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE345A8-964A-4F76-91BA-719F9A9D704B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5BB7099D-7179-4411-982C-C8F630FAF5CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5BB7099D-7179-4411-982C-C8F630FAF5CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
   <si>
     <t>Tests - history-project-2022</t>
   </si>
@@ -173,13 +173,151 @@
   </si>
   <si>
     <t>Moves left</t>
+  </si>
+  <si>
+    <t>Test_06</t>
+  </si>
+  <si>
+    <t>DisplayMainMenu</t>
+  </si>
+  <si>
+    <t>Petar Nikolov</t>
+  </si>
+  <si>
+    <t>Not as expected</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Redirects to the CRUD menu</t>
+  </si>
+  <si>
+    <t>Run the program</t>
+  </si>
+  <si>
+    <t>Shows how to use the program</t>
+  </si>
+  <si>
+    <t>Closes the program</t>
+  </si>
+  <si>
+    <t>Displays the main menu correctly</t>
+  </si>
+  <si>
+    <t>MainMenuFunctions</t>
+  </si>
+  <si>
+    <t>Displays the main menu as intended</t>
+  </si>
+  <si>
+    <t>The Main Menu functions work properly</t>
+  </si>
+  <si>
+    <t>Starting the program</t>
+  </si>
+  <si>
+    <t>Selecting Start</t>
+  </si>
+  <si>
+    <t>Selecting Help</t>
+  </si>
+  <si>
+    <t>Selecting Exit</t>
+  </si>
+  <si>
+    <t>Select Start and press Enter</t>
+  </si>
+  <si>
+    <t>Select Help and press Enter</t>
+  </si>
+  <si>
+    <t>Select Exit and press Enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selecting Start </t>
+  </si>
+  <si>
+    <t>Displays the Crud menu correctly</t>
+  </si>
+  <si>
+    <t>Displays the Help menu correctly</t>
+  </si>
+  <si>
+    <t>Test_07</t>
+  </si>
+  <si>
+    <t>Displays the Exit menu correctly</t>
+  </si>
+  <si>
+    <t>Test_08</t>
+  </si>
+  <si>
+    <t>Inserting an event</t>
+  </si>
+  <si>
+    <t>Updating an event</t>
+  </si>
+  <si>
+    <t>April, 1874, Bulgaria, Revolution, Successful</t>
+  </si>
+  <si>
+    <t>April, 1874, 1876</t>
+  </si>
+  <si>
+    <t>Searching for an event</t>
+  </si>
+  <si>
+    <t>April, 1876</t>
+  </si>
+  <si>
+    <t>Deleting an event</t>
+  </si>
+  <si>
+    <t>Deletes the event</t>
+  </si>
+  <si>
+    <t>Checking if the event is deleted</t>
+  </si>
+  <si>
+    <t>Selecting Show All Events</t>
+  </si>
+  <si>
+    <t>Displays no events</t>
+  </si>
+  <si>
+    <t>Shows the created event</t>
+  </si>
+  <si>
+    <t>Checking if the event is created</t>
+  </si>
+  <si>
+    <t>Shows the event with updated data</t>
+  </si>
+  <si>
+    <t>Creates the event</t>
+  </si>
+  <si>
+    <t>Updates the date of the event</t>
+  </si>
+  <si>
+    <t>Selecting Start and pressing Enter</t>
+  </si>
+  <si>
+    <t>Running the program</t>
+  </si>
+  <si>
+    <t>Selecting Help and pressing Enter</t>
+  </si>
+  <si>
+    <t>Selecting Exit and pressing Enter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +332,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +373,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6969"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,16 +553,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -409,28 +631,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -443,12 +643,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6969"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -757,781 +965,1786 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EE428A-3EC2-4FFD-9B34-06D36CA3734D}">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="P56" sqref="P56"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98:C98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="16" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="16" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="11">
+      <c r="G5" s="2"/>
+      <c r="H5" s="13">
         <v>44604</v>
       </c>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="16" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="16" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="11">
+      <c r="G7" s="2"/>
+      <c r="H7" s="13">
         <v>44604</v>
       </c>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+      <c r="I7" s="14"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="19" t="s">
+      <c r="E10" s="30"/>
+      <c r="F10" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="19" t="s">
+      <c r="G10" s="30"/>
+      <c r="H10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="19" t="s">
+      <c r="I10" s="30"/>
+      <c r="J10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="19" t="s">
+      <c r="K10" s="30"/>
+      <c r="L10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="20"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="21">
+      <c r="M10" s="30"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="31">
         <v>1</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="21" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="21" t="s">
+      <c r="E11" s="32"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="21" t="s">
+      <c r="I11" s="32"/>
+      <c r="J11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="21" t="s">
+      <c r="K11" s="32"/>
+      <c r="L11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="22"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
+      <c r="M11" s="32"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="16" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="2" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="16" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="11">
+      <c r="G17" s="2"/>
+      <c r="H17" s="13">
         <v>44604</v>
       </c>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="16" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="2" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="16" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="11">
+      <c r="G19" s="2"/>
+      <c r="H19" s="13">
         <v>44604</v>
       </c>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="19" t="s">
+      <c r="I19" s="14"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="19" t="s">
+      <c r="C22" s="30"/>
+      <c r="D22" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="19" t="s">
+      <c r="E22" s="30"/>
+      <c r="F22" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="19" t="s">
+      <c r="G22" s="30"/>
+      <c r="H22" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="19" t="s">
+      <c r="I22" s="30"/>
+      <c r="J22" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="20"/>
-      <c r="L22" s="19" t="s">
+      <c r="K22" s="30"/>
+      <c r="L22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="20"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="21">
+      <c r="M22" s="30"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="31">
         <v>1</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="21" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="21" t="s">
+      <c r="E23" s="32"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="21" t="s">
+      <c r="I23" s="32"/>
+      <c r="J23" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="21" t="s">
+      <c r="K23" s="32"/>
+      <c r="L23" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="22"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="13" t="s">
+      <c r="M23" s="32"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="16" t="s">
+      <c r="D28" s="22"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="2" t="s">
+      <c r="G28" s="2"/>
+      <c r="H28" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="16" t="s">
+      <c r="I28" s="16"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="16" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="11">
+      <c r="G29" s="2"/>
+      <c r="H29" s="13">
         <v>44604</v>
       </c>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="16" t="s">
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="2" t="s">
+      <c r="G30" s="2"/>
+      <c r="H30" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="16" t="s">
+      <c r="C31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="11">
+      <c r="G31" s="2"/>
+      <c r="H31" s="13">
         <v>44604</v>
       </c>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="19" t="s">
+      <c r="I31" s="14"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="19" t="s">
+      <c r="C34" s="30"/>
+      <c r="D34" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="19" t="s">
+      <c r="E34" s="30"/>
+      <c r="F34" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="19" t="s">
+      <c r="G34" s="30"/>
+      <c r="H34" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="19" t="s">
+      <c r="I34" s="30"/>
+      <c r="J34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="20"/>
-      <c r="L34" s="19" t="s">
+      <c r="K34" s="30"/>
+      <c r="L34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M34" s="20"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="21">
+      <c r="M34" s="30"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="31">
         <v>1</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="21" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="21" t="s">
+      <c r="E35" s="32"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="21" t="s">
+      <c r="I35" s="32"/>
+      <c r="J35" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="21" t="s">
+      <c r="K35" s="32"/>
+      <c r="L35" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M35" s="22"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="13" t="s">
+      <c r="M35" s="32"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="15"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="16" t="s">
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="21"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="16" t="s">
+      <c r="D39" s="22"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="16"/>
-      <c r="H39" s="2" t="s">
+      <c r="G39" s="2"/>
+      <c r="H39" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="16" t="s">
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="16" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="16"/>
-      <c r="H40" s="11">
+      <c r="G40" s="2"/>
+      <c r="H40" s="13">
         <v>44604</v>
       </c>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I40" s="14"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="16" t="s">
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="16"/>
-      <c r="H41" s="2" t="s">
+      <c r="G41" s="2"/>
+      <c r="H41" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I41" s="16"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="16" t="s">
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="16"/>
-      <c r="H42" s="11">
+      <c r="G42" s="2"/>
+      <c r="H42" s="13">
         <v>44604</v>
       </c>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="19" t="s">
+      <c r="I42" s="14"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="19" t="s">
+      <c r="C45" s="30"/>
+      <c r="D45" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="19" t="s">
+      <c r="E45" s="30"/>
+      <c r="F45" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="19" t="s">
+      <c r="G45" s="30"/>
+      <c r="H45" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="19" t="s">
+      <c r="I45" s="30"/>
+      <c r="J45" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K45" s="20"/>
-      <c r="L45" s="19" t="s">
+      <c r="K45" s="30"/>
+      <c r="L45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M45" s="20"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="21">
+      <c r="M45" s="30"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="31">
         <v>1</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="21" t="s">
+      <c r="C46" s="32"/>
+      <c r="D46" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="21" t="s">
+      <c r="E46" s="32"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I46" s="22"/>
-      <c r="J46" s="21" t="s">
+      <c r="I46" s="32"/>
+      <c r="J46" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="K46" s="22"/>
-      <c r="L46" s="21" t="s">
+      <c r="K46" s="32"/>
+      <c r="L46" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M46" s="22"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="13" t="s">
+      <c r="M46" s="32"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="15"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="16" t="s">
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="21"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="16" t="s">
+      <c r="D51" s="22"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="16"/>
-      <c r="H51" s="2" t="s">
+      <c r="G51" s="2"/>
+      <c r="H51" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B52" s="16" t="s">
+      <c r="I51" s="16"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="16" t="s">
+      <c r="D52" s="22"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G52" s="16"/>
-      <c r="H52" s="11">
+      <c r="G52" s="2"/>
+      <c r="H52" s="13">
         <v>44604</v>
       </c>
-      <c r="I52" s="12"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I52" s="14"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="16" t="s">
+      <c r="D53" s="24"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="16"/>
-      <c r="H53" s="2" t="s">
+      <c r="G53" s="2"/>
+      <c r="H53" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I53" s="16"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="18"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="16" t="s">
+      <c r="C54" s="26"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="16"/>
-      <c r="H54" s="11">
+      <c r="G54" s="2"/>
+      <c r="H54" s="13">
         <v>44604</v>
       </c>
-      <c r="I54" s="12"/>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B57" s="19" t="s">
+      <c r="I54" s="14"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="19" t="s">
+      <c r="C57" s="30"/>
+      <c r="D57" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="20"/>
-      <c r="F57" s="19" t="s">
+      <c r="E57" s="30"/>
+      <c r="F57" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="20"/>
-      <c r="H57" s="19" t="s">
+      <c r="G57" s="30"/>
+      <c r="H57" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I57" s="20"/>
-      <c r="J57" s="19" t="s">
+      <c r="I57" s="30"/>
+      <c r="J57" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K57" s="20"/>
-      <c r="L57" s="19" t="s">
+      <c r="K57" s="30"/>
+      <c r="L57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M57" s="20"/>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B58" s="21">
+      <c r="M57" s="30"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="31">
         <v>1</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="21" t="s">
+      <c r="C58" s="32"/>
+      <c r="D58" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="22"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="21" t="s">
+      <c r="E58" s="32"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I58" s="22"/>
-      <c r="J58" s="21" t="s">
+      <c r="I58" s="32"/>
+      <c r="J58" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="K58" s="22"/>
-      <c r="L58" s="21" t="s">
+      <c r="K58" s="32"/>
+      <c r="L58" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M58" s="22"/>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B59" s="21">
+      <c r="M58" s="32"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="31">
         <v>2</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="21" t="s">
+      <c r="C59" s="32"/>
+      <c r="D59" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E59" s="22"/>
-      <c r="F59" s="21" t="s">
+      <c r="E59" s="32"/>
+      <c r="F59" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G59" s="22"/>
-      <c r="H59" s="21" t="s">
+      <c r="G59" s="32"/>
+      <c r="H59" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I59" s="22"/>
-      <c r="J59" s="21" t="s">
+      <c r="I59" s="32"/>
+      <c r="J59" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="K59" s="22"/>
-      <c r="L59" s="21" t="s">
+      <c r="K59" s="32"/>
+      <c r="L59" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M59" s="22"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B60" s="21">
+      <c r="M59" s="32"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="31">
         <v>3</v>
       </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="21" t="s">
+      <c r="C60" s="32"/>
+      <c r="D60" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="21" t="s">
+      <c r="E60" s="32"/>
+      <c r="F60" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G60" s="22"/>
-      <c r="H60" s="21" t="s">
+      <c r="G60" s="32"/>
+      <c r="H60" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I60" s="22"/>
-      <c r="J60" s="21" t="s">
+      <c r="I60" s="32"/>
+      <c r="J60" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="K60" s="22"/>
-      <c r="L60" s="21" t="s">
+      <c r="K60" s="32"/>
+      <c r="L60" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M60" s="22"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B61" s="21">
+      <c r="M60" s="32"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="31">
         <v>4</v>
       </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="21" t="s">
+      <c r="C61" s="32"/>
+      <c r="D61" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="21" t="s">
+      <c r="E61" s="32"/>
+      <c r="F61" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G61" s="22"/>
-      <c r="H61" s="21" t="s">
+      <c r="G61" s="32"/>
+      <c r="H61" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I61" s="22"/>
-      <c r="J61" s="21" t="s">
+      <c r="I61" s="32"/>
+      <c r="J61" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="K61" s="22"/>
-      <c r="L61" s="21" t="s">
+      <c r="K61" s="32"/>
+      <c r="L61" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M61" s="22"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B62" s="21">
+      <c r="M61" s="32"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="31">
         <v>5</v>
       </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="21" t="s">
+      <c r="C62" s="32"/>
+      <c r="D62" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="22"/>
-      <c r="F62" s="21" t="s">
+      <c r="E62" s="32"/>
+      <c r="F62" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G62" s="22"/>
-      <c r="H62" s="21" t="s">
+      <c r="G62" s="32"/>
+      <c r="H62" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="I62" s="22"/>
-      <c r="J62" s="21" t="s">
+      <c r="I62" s="32"/>
+      <c r="J62" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="K62" s="22"/>
-      <c r="L62" s="21" t="s">
+      <c r="K62" s="32"/>
+      <c r="L62" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M62" s="22"/>
+      <c r="M62" s="32"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="11"/>
+      <c r="H65" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I65" s="16"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="11"/>
+      <c r="H66" s="13">
+        <v>44604</v>
+      </c>
+      <c r="I66" s="14"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="11"/>
+      <c r="H67" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I67" s="16"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="10"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="12"/>
+      <c r="H68" s="13">
+        <v>44604</v>
+      </c>
+      <c r="I68" s="14"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="6"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="5">
+        <v>1</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I72" s="5"/>
+      <c r="J72" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K72" s="4"/>
+      <c r="L72" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M72" s="5"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="5">
+        <v>2</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I73" s="5"/>
+      <c r="J73" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K73" s="4"/>
+      <c r="L73" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M73" s="5"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="5">
+        <v>3</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I74" s="5"/>
+      <c r="J74" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K74" s="4"/>
+      <c r="L74" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M74" s="5"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="5">
+        <v>4</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I75" s="5"/>
+      <c r="J75" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K75" s="4"/>
+      <c r="L75" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M75" s="5"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="11"/>
+      <c r="H78" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I78" s="16"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="11"/>
+      <c r="H79" s="13">
+        <v>44605</v>
+      </c>
+      <c r="I79" s="14"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="11"/>
+      <c r="H80" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I80" s="16"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="10"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="12"/>
+      <c r="H81" s="13">
+        <v>44605</v>
+      </c>
+      <c r="I81" s="14"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B83" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M83" s="6"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B84" s="33">
+        <v>1</v>
+      </c>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I84" s="33"/>
+      <c r="J84" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K84" s="33"/>
+      <c r="L84" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M84" s="33"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B85" s="33">
+        <v>2</v>
+      </c>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K85" s="33"/>
+      <c r="L85" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M85" s="33"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="33">
+        <v>3</v>
+      </c>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="I86" s="33"/>
+      <c r="J86" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K86" s="33"/>
+      <c r="L86" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M86" s="33"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87" s="5">
+        <v>4</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M87" s="5"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B88" s="5">
+        <v>5</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M88" s="5"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B89" s="5">
+        <v>6</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M89" s="5"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B90" s="5">
+        <v>7</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M90" s="5"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B92" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" s="11"/>
+      <c r="H93" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I93" s="16"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="11"/>
+      <c r="H94" s="13">
+        <v>44606</v>
+      </c>
+      <c r="I94" s="14"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B95" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="11"/>
+      <c r="H95" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I95" s="16"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B96" s="10"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="12"/>
+      <c r="H96" s="13">
+        <v>44606</v>
+      </c>
+      <c r="I96" s="14"/>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B98" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M98" s="6"/>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B99" s="33">
+        <v>1</v>
+      </c>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="I99" s="33"/>
+      <c r="J99" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K99" s="33"/>
+      <c r="L99" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M99" s="33"/>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B100" s="33">
+        <v>2</v>
+      </c>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="I100" s="33"/>
+      <c r="J100" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K100" s="33"/>
+      <c r="L100" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M100" s="33"/>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B101" s="33">
+        <v>3</v>
+      </c>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E101" s="33"/>
+      <c r="F101" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G101" s="33"/>
+      <c r="H101" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I101" s="33"/>
+      <c r="J101" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K101" s="33"/>
+      <c r="L101" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M101" s="33"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B102" s="33">
+        <v>4</v>
+      </c>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I102" s="33"/>
+      <c r="J102" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K102" s="33"/>
+      <c r="L102" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M102" s="33"/>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B103" s="33">
+        <v>5</v>
+      </c>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G103" s="33"/>
+      <c r="H103" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I103" s="33"/>
+      <c r="J103" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K103" s="33"/>
+      <c r="L103" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M103" s="33"/>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B104" s="33">
+        <v>6</v>
+      </c>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G104" s="33"/>
+      <c r="H104" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I104" s="33"/>
+      <c r="J104" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K104" s="33"/>
+      <c r="L104" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M104" s="33"/>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B105" s="33">
+        <v>7</v>
+      </c>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G105" s="33"/>
+      <c r="H105" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="I105" s="33"/>
+      <c r="J105" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K105" s="33"/>
+      <c r="L105" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M105" s="33"/>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B106" s="33">
+        <v>8</v>
+      </c>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E106" s="33"/>
+      <c r="F106" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G106" s="33"/>
+      <c r="H106" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I106" s="33"/>
+      <c r="J106" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K106" s="33"/>
+      <c r="L106" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M106" s="33"/>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B107" s="33">
+        <v>9</v>
+      </c>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E107" s="33"/>
+      <c r="F107" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G107" s="33"/>
+      <c r="H107" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I107" s="33"/>
+      <c r="J107" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K107" s="33"/>
+      <c r="L107" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M107" s="33"/>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B108" s="33">
+        <v>10</v>
+      </c>
+      <c r="C108" s="33"/>
+      <c r="D108" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E108" s="33"/>
+      <c r="F108" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G108" s="33"/>
+      <c r="H108" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I108" s="33"/>
+      <c r="J108" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K108" s="33"/>
+      <c r="L108" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M108" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="129">
+  <mergeCells count="308">
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="B92:I92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:E96"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:E81"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="F62:G62"/>
@@ -1544,6 +2757,14 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="J61:K61"/>
     <mergeCell ref="L61:M61"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="F60:G60"/>
@@ -1556,30 +2777,16 @@
     <mergeCell ref="H59:I59"/>
     <mergeCell ref="J59:K59"/>
     <mergeCell ref="L59:M59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="H51:I51"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="C53:E54"/>
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="H54:I54"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="D46:E46"/>
@@ -1587,18 +2794,26 @@
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="J46:K46"/>
     <mergeCell ref="L46:M46"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="H51:I51"/>
     <mergeCell ref="C41:E42"/>
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="H35:I35"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="B34:C34"/>
@@ -1614,18 +2829,6 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:E31"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="H16:I16"/>
@@ -1640,6 +2843,16 @@
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="B41:B42"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J10:K10"/>
@@ -1661,7 +2874,47 @@
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C6:E7"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="L74:M74"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
